--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4181738.094855069</v>
+        <v>4179487.276469175</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>198.3806752841664</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>193.4171325760649</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>248.8850931379794</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,16 +950,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>341.2578399936063</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>223.82438355203</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>26.26583888007722</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>362.4006936231293</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>215.6927484323853</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.72683757586851</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>22.11041309544134</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701356</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.28042246958144</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>120.635366662024</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1664,13 +1664,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784697</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,22 +1765,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>127.3165365479901</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>135.4334972246869</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>61.6038587869123</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004736</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>274.322476058992</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>28.20584125154379</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004736</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>266.0283717037987</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>57.53695119582242</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>202.4425172951285</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>17.25588147840113</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2770,16 +2770,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>47.35366207100765</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.75769145492315</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>147.8726780845238</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3187,22 +3187,22 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C34" t="n">
-        <v>138.8504880697912</v>
+        <v>17.86119194381546</v>
       </c>
       <c r="D34" t="n">
         <v>120.2191399893757</v>
       </c>
       <c r="E34" t="n">
-        <v>118.0376296177326</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G34" t="n">
-        <v>101.5852489264503</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>116.3586818854842</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>60.53581964121071</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>161.3726923026053</v>
       </c>
       <c r="T34" t="n">
         <v>191.1526162473326</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,25 +3424,25 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C37" t="n">
-        <v>138.8504880697912</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G37" t="n">
         <v>137.6294752301916</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3586818854842</v>
+        <v>9.588951692822945</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>67.95608738100147</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>40.83985100076229</v>
+        <v>60.53581964121071</v>
       </c>
       <c r="S37" t="n">
         <v>161.3726923026053</v>
@@ -3487,7 +3487,7 @@
         <v>258.1266653077544</v>
       </c>
       <c r="X37" t="n">
-        <v>197.3133223602005</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>190.1883203232582</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>134.8859069379102</v>
       </c>
       <c r="D40" t="n">
-        <v>51.19843204833968</v>
+        <v>120.2191399893758</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>118.0376296177326</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3586818854842</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>67.95608738100151</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>191.1526162473326</v>
       </c>
       <c r="U40" t="n">
-        <v>257.8155051767762</v>
+        <v>257.8155051767763</v>
       </c>
       <c r="V40" t="n">
         <v>223.7413102949914</v>
@@ -3724,7 +3724,7 @@
         <v>258.1266653077544</v>
       </c>
       <c r="X40" t="n">
-        <v>197.3133223602005</v>
+        <v>197.3133223602006</v>
       </c>
       <c r="Y40" t="n">
         <v>190.1883203232582</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534548</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>151.4356471531007</v>
+        <v>9.841590791027889</v>
       </c>
       <c r="C43" t="n">
         <v>138.8504880697912</v>
@@ -3904,13 +3904,13 @@
         <v>120.2191399893757</v>
       </c>
       <c r="E43" t="n">
-        <v>118.0376296177326</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F43" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>60.53581964121071</v>
       </c>
       <c r="S43" t="n">
         <v>161.3726923026053</v>
       </c>
       <c r="T43" t="n">
-        <v>130.6991397625669</v>
+        <v>191.1526162473326</v>
       </c>
       <c r="U43" t="n">
         <v>257.8155051767762</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>151.4356471531007</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D46" t="n">
         <v>120.2191399893757</v>
       </c>
       <c r="E46" t="n">
-        <v>118.0376296177326</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>137.6294752301916</v>
@@ -4153,7 +4153,7 @@
         <v>116.3586818854842</v>
       </c>
       <c r="I46" t="n">
-        <v>67.95608738100145</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>60.53581964121068</v>
+        <v>60.53581964121071</v>
       </c>
       <c r="S46" t="n">
         <v>161.3726923026053</v>
@@ -4189,7 +4189,7 @@
         <v>191.1526162473326</v>
       </c>
       <c r="U46" t="n">
-        <v>257.8155051767762</v>
+        <v>117.9003965469512</v>
       </c>
       <c r="V46" t="n">
         <v>223.7413102949914</v>
@@ -4201,7 +4201,7 @@
         <v>197.3133223602005</v>
       </c>
       <c r="Y46" t="n">
-        <v>37.54091492349735</v>
+        <v>190.1883203232582</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1546.007598651101</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1177.04508171069</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>818.7793831039394</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>818.7793831039394</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>407.7934783143318</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,7 +4328,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2270.572072876962</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2016.810287515053</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>1685.747400171482</v>
       </c>
       <c r="W2" t="n">
-        <v>1936.146930626913</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>1936.146930626913</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1546.007598651101</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,13 +4413,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>224.6669506791649</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2247.308246834948</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C5" t="n">
-        <v>1878.345729894537</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D5" t="n">
-        <v>1520.080031287786</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>1134.291778689542</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>723.3058738999346</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>305.3420657981214</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4598,19 +4598,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834948</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="Y5" t="n">
-        <v>2247.308246834948</v>
+        <v>1317.778685247039</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4653,10 +4653,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>519.9493689922781</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>519.9493689922781</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>701.5978338225178</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.94416071721</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776798</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="D8" t="n">
-        <v>819.7159451700475</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718032</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1146.872145265846</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1146.872145265846</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661917</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837986</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858882</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427196</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.328657580449</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807095</v>
+        <v>3196.009277420602</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5075,16 +5075,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5133,13 +5133,13 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5148,7 +5148,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447819</v>
@@ -5157,7 +5157,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282342</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>582.3166934139181</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>413.3805104860112</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5197,52 +5197,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.789495593986</v>
+        <v>909.273154178341</v>
       </c>
       <c r="W13" t="n">
-        <v>901.3723255570251</v>
+        <v>619.8559841413804</v>
       </c>
       <c r="X13" t="n">
-        <v>901.3723255570251</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y13" t="n">
-        <v>680.5797464134949</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5276,22 +5276,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2337.214217867999</v>
+        <v>2707.641918722172</v>
       </c>
       <c r="N14" t="n">
-        <v>3316.966490094645</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5315,13 +5315,13 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5346,31 +5346,31 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
         <v>2436.460902902952</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>536.5812623108397</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="C16" t="n">
-        <v>536.5812623108397</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="D16" t="n">
-        <v>536.5812623108397</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="E16" t="n">
-        <v>388.6681687284467</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305365</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305365</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5437,7 +5437,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1819.541953756535</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1597.775338326061</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1308.672471451705</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1053.987983245818</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W16" t="n">
-        <v>764.5708132088571</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X16" t="n">
-        <v>536.5812623108397</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y16" t="n">
-        <v>536.5812623108397</v>
+        <v>391.8664332433625</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5498,43 +5498,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551625</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483405</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542187</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5546,19 +5546,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5583,7 +5583,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5592,19 +5592,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>452.5901955154779</v>
+        <v>411.3871648742117</v>
       </c>
       <c r="C19" t="n">
-        <v>390.3640755286979</v>
+        <v>242.4509819463049</v>
       </c>
       <c r="D19" t="n">
-        <v>390.3640755286979</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E19" t="n">
         <v>242.4509819463048</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.789495593986</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W19" t="n">
-        <v>901.3723255570254</v>
+        <v>632.1797440177419</v>
       </c>
       <c r="X19" t="n">
-        <v>673.3827746590081</v>
+        <v>632.1797440177419</v>
       </c>
       <c r="Y19" t="n">
-        <v>452.5901955154779</v>
+        <v>411.3871648742117</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,28 +5750,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.328657580449</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807095</v>
+        <v>3163.468180669545</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750059</v>
+        <v>3666.440651548882</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4379.795738995828</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5820,7 +5820,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5829,25 +5829,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>270.9417306852379</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C22" t="n">
-        <v>270.9417306852379</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>270.9417306852379</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
         <v>95.56103444839442</v>
@@ -5908,13 +5908,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>1445.473983799873</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.789495593986</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W22" t="n">
-        <v>901.3723255570251</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X22" t="n">
-        <v>673.3827746590077</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y22" t="n">
-        <v>452.5901955154776</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,25 +5987,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.328657580449</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807095</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O23" t="n">
-        <v>3944.053400686432</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P23" t="n">
-        <v>4338.82776704361</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188666</v>
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6066,40 +6066,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839439</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E25" t="n">
         <v>95.56103444839442</v>
@@ -6148,49 +6148,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N25" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208122</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838515</v>
+        <v>1042.840905830482</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858342</v>
+        <v>814.8513549324643</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>594.0587757889342</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,22 +6224,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176192</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1236.699401366028</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2215.249704195856</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N26" t="n">
-        <v>2762.028521254639</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P26" t="n">
         <v>4195.497197679678</v>
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6303,13 +6303,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6321,22 +6321,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>260.9043113423039</v>
+        <v>706.4876447660638</v>
       </c>
       <c r="C28" t="n">
-        <v>260.9043113423039</v>
+        <v>706.4876447660638</v>
       </c>
       <c r="D28" t="n">
-        <v>260.9043113423039</v>
+        <v>556.371005353728</v>
       </c>
       <c r="E28" t="n">
-        <v>112.9912177599107</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F28" t="n">
-        <v>112.9912177599107</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6385,49 +6385,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208121</v>
+        <v>1116.125660494321</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838514</v>
+        <v>1116.125660494321</v>
       </c>
       <c r="X28" t="n">
-        <v>481.696890485834</v>
+        <v>888.1361095963035</v>
       </c>
       <c r="Y28" t="n">
-        <v>260.9043113423039</v>
+        <v>888.1361095963035</v>
       </c>
     </row>
     <row r="29">
@@ -6461,22 +6461,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1407.474004094473</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>1941.005908766398</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P29" t="n">
         <v>4195.497197679678</v>
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E31" t="n">
         <v>95.56103444839442</v>
@@ -6622,7 +6622,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6634,7 +6634,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
@@ -6646,25 +6646,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258583</v>
+        <v>1525.460783189539</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384227</v>
+        <v>1236.357916315182</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783401</v>
+        <v>981.6734281092955</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413794</v>
+        <v>692.256258072335</v>
       </c>
       <c r="X31" t="n">
-        <v>391.8664332433621</v>
+        <v>464.2667071743176</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.0738540998319</v>
+        <v>243.4741280307875</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L32" t="n">
-        <v>1803.682313196074</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M32" t="n">
-        <v>2337.214217867999</v>
+        <v>2209.609207880054</v>
       </c>
       <c r="N32" t="n">
-        <v>3316.966490094645</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468568</v>
@@ -6780,16 +6780,16 @@
         <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6798,7 +6798,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6807,22 +6807,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.6228410027725</v>
+        <v>472.472828938312</v>
       </c>
       <c r="C34" t="n">
-        <v>556.3698227504581</v>
+        <v>454.431220914256</v>
       </c>
       <c r="D34" t="n">
-        <v>434.9363480137149</v>
+        <v>332.9977461775128</v>
       </c>
       <c r="E34" t="n">
-        <v>315.7064191069142</v>
+        <v>213.7678172707122</v>
       </c>
       <c r="F34" t="n">
-        <v>315.7064191069142</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>213.0950565549441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6856,19 +6856,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>168.7960365938782</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K34" t="n">
-        <v>400.8955892413028</v>
+        <v>400.8955892413029</v>
       </c>
       <c r="L34" t="n">
-        <v>745.5677573883472</v>
+        <v>745.5677573883474</v>
       </c>
       <c r="M34" t="n">
-        <v>1117.837172686444</v>
+        <v>1117.837172686445</v>
       </c>
       <c r="N34" t="n">
-        <v>1487.357919090857</v>
+        <v>1487.357919090858</v>
       </c>
       <c r="O34" t="n">
         <v>1814.799887709819</v>
@@ -6880,28 +6880,28 @@
         <v>2181.24242369309</v>
       </c>
       <c r="R34" t="n">
-        <v>2181.24242369309</v>
+        <v>2120.095131126211</v>
       </c>
       <c r="S34" t="n">
-        <v>2181.24242369309</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T34" t="n">
-        <v>1988.158972938208</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U34" t="n">
-        <v>1727.739270739444</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V34" t="n">
-        <v>1501.73794720915</v>
+        <v>1277.58793514469</v>
       </c>
       <c r="W34" t="n">
-        <v>1241.003941847782</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X34" t="n">
-        <v>1041.697555625357</v>
+        <v>817.5475435608967</v>
       </c>
       <c r="Y34" t="n">
-        <v>849.5881411574196</v>
+        <v>625.4381290929591</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6935,25 +6935,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1898.858917622688</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294613</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353395</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
         <v>1715.000032008795</v>
@@ -7035,7 +7035,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7044,7 +7044,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
         <v>2043.809373447819</v>
@@ -7053,7 +7053,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>492.3677467569466</v>
+        <v>671.7792151607364</v>
       </c>
       <c r="C37" t="n">
-        <v>352.1147285046322</v>
+        <v>671.7792151607364</v>
       </c>
       <c r="D37" t="n">
-        <v>352.1147285046322</v>
+        <v>550.3457404239932</v>
       </c>
       <c r="E37" t="n">
-        <v>352.1147285046322</v>
+        <v>431.1158115171927</v>
       </c>
       <c r="F37" t="n">
-        <v>352.1147285046322</v>
+        <v>312.9090286948749</v>
       </c>
       <c r="G37" t="n">
-        <v>213.0950565549438</v>
+        <v>173.8893567451867</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7099,13 +7099,13 @@
         <v>400.8955892413029</v>
       </c>
       <c r="L37" t="n">
-        <v>745.5677573883474</v>
+        <v>745.5677573883472</v>
       </c>
       <c r="M37" t="n">
-        <v>1117.837172686445</v>
+        <v>1117.837172686444</v>
       </c>
       <c r="N37" t="n">
-        <v>1487.357919090858</v>
+        <v>1487.357919090857</v>
       </c>
       <c r="O37" t="n">
         <v>1814.799887709819</v>
@@ -7117,28 +7117,28 @@
         <v>2181.24242369309</v>
       </c>
       <c r="R37" t="n">
-        <v>2139.990048944845</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S37" t="n">
-        <v>1976.987329447264</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T37" t="n">
-        <v>1783.903878692382</v>
+        <v>1764.008960873747</v>
       </c>
       <c r="U37" t="n">
-        <v>1523.484176493619</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V37" t="n">
-        <v>1297.482852963324</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W37" t="n">
-        <v>1036.748847601956</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X37" t="n">
-        <v>837.4424613795314</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="Y37" t="n">
-        <v>645.3330469115938</v>
+        <v>824.7445153153835</v>
       </c>
     </row>
     <row r="38">
@@ -7151,58 +7151,58 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277727</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972664</v>
       </c>
       <c r="L38" t="n">
-        <v>1586.925993846825</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2120.457898518749</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N38" t="n">
-        <v>2667.236715577531</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O38" t="n">
-        <v>3547.201365906985</v>
+        <v>3499.035002528529</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4212.390089975475</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4670.868292484463</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604875</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973176</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161906</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549394</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494839</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763689</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089898</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468574</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426848</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902951</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.10246054955</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142066</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635546</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313401</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447817</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216074</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487872</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517386</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>472.4728289383105</v>
+        <v>472.4728289383121</v>
       </c>
       <c r="C40" t="n">
-        <v>472.4728289383105</v>
+        <v>336.2244380919382</v>
       </c>
       <c r="D40" t="n">
-        <v>420.7572410106947</v>
+        <v>214.790963355195</v>
       </c>
       <c r="E40" t="n">
-        <v>420.7572410106947</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F40" t="n">
-        <v>420.7572410106947</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G40" t="n">
-        <v>281.7375690610062</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H40" t="n">
-        <v>164.2035469544565</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J40" t="n">
-        <v>168.7960365938782</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K40" t="n">
         <v>400.8955892413028</v>
@@ -7360,22 +7360,22 @@
         <v>1957.092411628628</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.008960873747</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U40" t="n">
-        <v>1503.589258674983</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V40" t="n">
-        <v>1277.587935144689</v>
+        <v>1277.58793514469</v>
       </c>
       <c r="W40" t="n">
-        <v>1016.85392978332</v>
+        <v>1016.853929783322</v>
       </c>
       <c r="X40" t="n">
-        <v>817.5475435608952</v>
+        <v>817.5475435608969</v>
       </c>
       <c r="Y40" t="n">
-        <v>625.4381290929576</v>
+        <v>625.4381290929593</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143015</v>
@@ -7397,64 +7397,64 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551633</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2006.065164440652</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2985.817436667299</v>
       </c>
       <c r="O41" t="n">
-        <v>4010.914672075805</v>
+        <v>3865.782086996754</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.556453353932</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>594.6842391665705</v>
+        <v>615.4971282939412</v>
       </c>
       <c r="C43" t="n">
-        <v>454.4312209142561</v>
+        <v>475.2441100416268</v>
       </c>
       <c r="D43" t="n">
-        <v>332.9977461775129</v>
+        <v>353.8106353048836</v>
       </c>
       <c r="E43" t="n">
-        <v>213.7678172707122</v>
+        <v>234.5807063980829</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>234.5807063980829</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J43" t="n">
-        <v>168.7960365938782</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K43" t="n">
         <v>400.8955892413028</v>
       </c>
       <c r="L43" t="n">
-        <v>745.567757388347</v>
+        <v>745.5677573883472</v>
       </c>
       <c r="M43" t="n">
-        <v>1117.837172686444</v>
+        <v>1117.837172686445</v>
       </c>
       <c r="N43" t="n">
         <v>1487.357919090857</v>
@@ -7588,31 +7588,31 @@
         <v>2075.519757842027</v>
       </c>
       <c r="Q43" t="n">
-        <v>2181.242423693089</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R43" t="n">
-        <v>2181.242423693089</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S43" t="n">
-        <v>2018.239704195508</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T43" t="n">
-        <v>1886.220371102006</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U43" t="n">
-        <v>1625.800668903242</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V43" t="n">
-        <v>1399.799345372948</v>
+        <v>1277.58793514469</v>
       </c>
       <c r="W43" t="n">
-        <v>1139.06534001158</v>
+        <v>1016.853929783322</v>
       </c>
       <c r="X43" t="n">
-        <v>939.7589537891553</v>
+        <v>817.5475435608968</v>
       </c>
       <c r="Y43" t="n">
-        <v>747.6495393212176</v>
+        <v>625.4381290929592</v>
       </c>
     </row>
     <row r="44">
@@ -7637,28 +7637,28 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277731</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811482</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542189</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232732</v>
@@ -7701,52 +7701,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390103</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193577</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320232</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7755,22 +7755,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>779.6274274765562</v>
+        <v>613.80122149369</v>
       </c>
       <c r="C46" t="n">
-        <v>779.6274274765562</v>
+        <v>473.5482032413757</v>
       </c>
       <c r="D46" t="n">
-        <v>658.193952739813</v>
+        <v>352.1147285046326</v>
       </c>
       <c r="E46" t="n">
-        <v>538.9640238330123</v>
+        <v>352.1147285046326</v>
       </c>
       <c r="F46" t="n">
-        <v>420.7572410106945</v>
+        <v>352.1147285046326</v>
       </c>
       <c r="G46" t="n">
-        <v>281.7375690610062</v>
+        <v>213.0950565549441</v>
       </c>
       <c r="H46" t="n">
-        <v>164.2035469544565</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7810,25 +7810,25 @@
         <v>400.895589241303</v>
       </c>
       <c r="L46" t="n">
-        <v>745.5677573883474</v>
+        <v>745.5677573883473</v>
       </c>
       <c r="M46" t="n">
         <v>1117.837172686445</v>
       </c>
       <c r="N46" t="n">
-        <v>1487.357919090858</v>
+        <v>1487.357919090857</v>
       </c>
       <c r="O46" t="n">
-        <v>1814.79988770982</v>
+        <v>1814.799887709819</v>
       </c>
       <c r="P46" t="n">
-        <v>2075.519757842028</v>
+        <v>2075.519757842027</v>
       </c>
       <c r="Q46" t="n">
-        <v>2181.242423693091</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R46" t="n">
-        <v>2120.095131126211</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S46" t="n">
         <v>1957.092411628629</v>
@@ -7837,19 +7837,19 @@
         <v>1764.008960873748</v>
       </c>
       <c r="U46" t="n">
-        <v>1503.589258674984</v>
+        <v>1644.917651230362</v>
       </c>
       <c r="V46" t="n">
-        <v>1277.58793514469</v>
+        <v>1418.916327700068</v>
       </c>
       <c r="W46" t="n">
-        <v>1016.853929783322</v>
+        <v>1158.1823223387</v>
       </c>
       <c r="X46" t="n">
-        <v>817.547543560897</v>
+        <v>958.8759361162754</v>
       </c>
       <c r="Y46" t="n">
-        <v>779.6274274765562</v>
+        <v>766.7665216483372</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8301,13 +8301,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8532,7 +8532,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,19 +8690,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>295.4822118493965</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8933,16 +8933,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>205.0727796301212</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>258.621178561693</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9170,13 +9170,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>29.61882225792147</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9407,22 +9407,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.253057640027</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>26.15484791631846</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>160.3329896347532</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>67.53663776704403</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9872,25 +9872,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>37.13651117804409</v>
       </c>
       <c r="O26" t="n">
-        <v>219.3344627260169</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10109,25 +10109,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>341.5962138876751</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>443.8160624667693</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>258.621178561693</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>163.3991441460106</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10820,22 +10820,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>29.61882225792357</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>48.65289230147074</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>238.2160185885851</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>67.53663776704263</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,22 +11294,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>96.13798426930737</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476826</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.55155771235586</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>105.0742887270131</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>39.93028455063775</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>54.33552810675496</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>105.6429623117155</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>12.20052227759902</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>118.2281213950254</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>20.18346650181428</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>228.9860471407686</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>16.14213605696634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>148.7699267806271</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>204.7839812528204</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.0742887270141</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>71.67627119164544</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>120.9892961259757</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>36.04422630374131</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I34" t="n">
-        <v>67.95608738100148</v>
+        <v>67.95608738100147</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.53581964121072</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>161.3726923026053</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D37" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>118.0376296177326</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>106.7697301926612</v>
       </c>
       <c r="I37" t="n">
-        <v>67.95608738100148</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.69596864044843</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>197.3133223602005</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.8504880697912</v>
+        <v>3.964581131881077</v>
       </c>
       <c r="D40" t="n">
-        <v>69.02070794103606</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>118.0376296177326</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>117.0247149940946</v>
+        <v>117.0247149940947</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>67.95608738100151</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>141.5940563620728</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,13 +25795,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G43" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.3586818854842</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I43" t="n">
         <v>67.95608738100148</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>60.53581964121072</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>60.45347648476564</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>151.4356471531007</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.8504880697912</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>139.915108629825</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>152.6474053997608</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>625164.1020565146</v>
+        <v>625164.1020565147</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
         <v>821041.769864283</v>
@@ -26320,40 +26320,40 @@
         <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
+        <v>794163.5737739661</v>
+      </c>
+      <c r="F2" t="n">
+        <v>794163.5737739664</v>
+      </c>
+      <c r="G2" t="n">
+        <v>794163.5737739659</v>
+      </c>
+      <c r="H2" t="n">
         <v>794163.5737739662</v>
       </c>
-      <c r="F2" t="n">
-        <v>794163.5737739661</v>
-      </c>
-      <c r="G2" t="n">
-        <v>794163.5737739661</v>
-      </c>
-      <c r="H2" t="n">
-        <v>794163.5737739663</v>
-      </c>
       <c r="I2" t="n">
-        <v>794163.5737739661</v>
+        <v>794163.5737739662</v>
       </c>
       <c r="J2" t="n">
         <v>794163.5737739661</v>
       </c>
       <c r="K2" t="n">
-        <v>794163.5737739662</v>
+        <v>794163.5737739659</v>
       </c>
       <c r="L2" t="n">
-        <v>810411.3648893399</v>
+        <v>810411.36488934</v>
       </c>
       <c r="M2" t="n">
         <v>810411.3648893395</v>
       </c>
       <c r="N2" t="n">
-        <v>810411.3648893397</v>
+        <v>810411.36488934</v>
       </c>
       <c r="O2" t="n">
-        <v>810411.3648893401</v>
+        <v>810411.3648893391</v>
       </c>
       <c r="P2" t="n">
-        <v>810411.3648893399</v>
+        <v>810411.3648893404</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934069</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22717.06642306929</v>
+        <v>22717.0664230693</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.080258466070518e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.026689228136092e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918989</v>
       </c>
       <c r="F4" t="n">
         <v>18148.49231918991</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="L4" t="n">
         <v>27492.30103190629</v>
       </c>
       <c r="M4" t="n">
-        <v>27492.30103190627</v>
+        <v>27492.3010319063</v>
       </c>
       <c r="N4" t="n">
-        <v>27492.30103190631</v>
+        <v>27492.30103190629</v>
       </c>
       <c r="O4" t="n">
-        <v>27492.30103190629</v>
+        <v>27492.30103190624</v>
       </c>
       <c r="P4" t="n">
-        <v>27492.30103190628</v>
+        <v>27492.3010319063</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="F5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="F5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
@@ -26488,10 +26488,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26503,13 +26503,13 @@
         <v>98770.76957511491</v>
       </c>
       <c r="N5" t="n">
+        <v>98770.76957511493</v>
+      </c>
+      <c r="O5" t="n">
+        <v>98770.76957511493</v>
+      </c>
+      <c r="P5" t="n">
         <v>98770.76957511491</v>
-      </c>
-      <c r="O5" t="n">
-        <v>98770.76957511491</v>
-      </c>
-      <c r="P5" t="n">
-        <v>98770.76957511493</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-35133.87427079881</v>
+        <v>-35133.87427079884</v>
       </c>
       <c r="C6" t="n">
         <v>554834.0049437457</v>
       </c>
       <c r="D6" t="n">
-        <v>554834.0049437457</v>
+        <v>554834.0049437456</v>
       </c>
       <c r="E6" t="n">
-        <v>-47745.85079234399</v>
+        <v>-47813.04628257021</v>
       </c>
       <c r="F6" t="n">
-        <v>679631.5632010625</v>
+        <v>679564.3677108373</v>
       </c>
       <c r="G6" t="n">
-        <v>679631.5632010625</v>
+        <v>679564.3677108366</v>
       </c>
       <c r="H6" t="n">
-        <v>679631.5632010627</v>
+        <v>679564.3677108368</v>
       </c>
       <c r="I6" t="n">
-        <v>679631.5632010625</v>
+        <v>679564.3677108368</v>
       </c>
       <c r="J6" t="n">
-        <v>503208.3440084696</v>
+        <v>503141.1485182437</v>
       </c>
       <c r="K6" t="n">
-        <v>679631.5632010625</v>
+        <v>679564.3677108366</v>
       </c>
       <c r="L6" t="n">
-        <v>661431.2278592493</v>
+        <v>661404.6518468121</v>
       </c>
       <c r="M6" t="n">
-        <v>554505.9794433736</v>
+        <v>554479.4034309362</v>
       </c>
       <c r="N6" t="n">
-        <v>684148.2942823188</v>
+        <v>684121.7182698814</v>
       </c>
       <c r="O6" t="n">
-        <v>684148.2942823186</v>
+        <v>684121.7182698805</v>
       </c>
       <c r="P6" t="n">
-        <v>684148.2942823183</v>
+        <v>684121.7182698818</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M2" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N2" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="O2" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="P2" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762118</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26996,10 +26996,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>215.4034947366286</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>23.03118778159291</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>10.81525101172488</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>75.03767962637775</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>28.47326068486274</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,7 +27825,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>62.69861478456102</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>192.3188144720176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>44.47535211858212</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27901,25 +27901,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>154.0383522460838</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831824</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>202.9246923626429</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28144,10 +28144,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-7.07318341828168e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28384,13 +28384,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-3.206433612225797e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="C34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="D34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="E34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="F34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="G34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="H34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="I34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="J34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="K34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="L34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="P34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="R34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="S34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="T34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="U34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="V34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="W34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="X34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Y34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="C37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="D37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="E37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="F37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="G37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="H37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="I37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="J37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="K37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="L37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="P37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="R37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="S37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="T37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="U37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="V37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="W37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="X37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="C40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="D40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="E40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="F40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="G40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="H40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="I40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="J40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="K40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="L40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="M40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="N40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="O40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="P40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="R40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="S40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="T40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="U40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="V40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="W40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="X40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883659</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="C43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="D43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="E43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="F43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="G43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="H43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="I43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="J43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="K43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="L43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="P43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="R43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="S43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="T43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="U43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="V43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="W43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="X43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="C46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="D46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="E46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="F46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="G46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="H46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="I46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="J46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="K46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="L46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="P46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="R46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="S46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="T46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="U46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="V46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="W46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="X46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883663</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33272,7 +33272,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33752,7 +33752,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34214,7 +34214,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026424</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,13 +35021,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>988.434649323059</v>
+        <v>834.4033276796234</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O11" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
@@ -35653,16 +35653,16 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>743.993895460348</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>766.6741794499121</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
@@ -35884,28 +35884,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>568.5399380881482</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36060,7 +36060,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.306058528246</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>276.9491527200379</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306619</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443195</v>
@@ -36297,7 +36297,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>712.6348250476647</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>318.3309425707635</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>589.4383465909556</v>
       </c>
       <c r="O26" t="n">
-        <v>727.3874636142359</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,25 +36829,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>797.1863282800073</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
@@ -36920,7 +36920,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>982.737178296996</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>766.6741794499121</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.97474964190283</v>
+        <v>73.97474964190287</v>
       </c>
       <c r="K34" t="n">
         <v>234.4439925731562</v>
       </c>
       <c r="L34" t="n">
-        <v>348.1537051990347</v>
+        <v>348.1537051990348</v>
       </c>
       <c r="M34" t="n">
         <v>376.0297124223205</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>671.4521450342297</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37400,7 +37400,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.97474964190286</v>
+        <v>73.97474964190285</v>
       </c>
       <c r="K37" t="n">
         <v>234.4439925731562</v>
       </c>
       <c r="L37" t="n">
-        <v>348.1537051990348</v>
+        <v>348.1537051990347</v>
       </c>
       <c r="M37" t="n">
         <v>376.0297124223205</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407862</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.336699126565</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>485.2089366502554</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.301835412911</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509642</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.109295463624</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222467</v>
+        <v>108.2660908436955</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.9747496419028</v>
+        <v>73.97474964190282</v>
       </c>
       <c r="K40" t="n">
-        <v>234.4439925731561</v>
+        <v>234.4439925731562</v>
       </c>
       <c r="L40" t="n">
         <v>348.1537051990347</v>
@@ -37710,16 +37710,16 @@
         <v>376.0297124223204</v>
       </c>
       <c r="N40" t="n">
-        <v>373.2532791963766</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O40" t="n">
-        <v>330.7494632514763</v>
+        <v>330.7494632514764</v>
       </c>
       <c r="P40" t="n">
         <v>263.353404173947</v>
       </c>
       <c r="Q40" t="n">
-        <v>106.7905715667302</v>
+        <v>106.7905715667303</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>777.1371344188119</v>
       </c>
       <c r="N41" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>575.5896386552618</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.97474964190283</v>
+        <v>73.97474964190285</v>
       </c>
       <c r="K43" t="n">
         <v>234.4439925731562</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407865</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265655</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923324</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.921115830227</v>
+        <v>635.0591000995341</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636244</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597567</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.97474964190289</v>
+        <v>73.97474964190287</v>
       </c>
       <c r="K46" t="n">
-        <v>234.4439925731563</v>
+        <v>234.4439925731562</v>
       </c>
       <c r="L46" t="n">
-        <v>348.1537051990348</v>
+        <v>348.1537051990347</v>
       </c>
       <c r="M46" t="n">
-        <v>376.0297124223206</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N46" t="n">
-        <v>373.2532791963768</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O46" t="n">
-        <v>330.7494632514765</v>
+        <v>330.7494632514764</v>
       </c>
       <c r="P46" t="n">
         <v>263.3534041739471</v>
